--- a/UserLoginSample/Documents/0_RFP/XXXXシステムRFPシート（サンプル）.xlsx
+++ b/UserLoginSample/Documents/0_RFP/XXXXシステムRFPシート（サンプル）.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://integralworks.sharepoint.com/sites/ABS2/Shared Documents/演習サンプル/０．RFP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1280" documentId="114_{22789302-DE30-4345-990F-1EE4C4217E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE2A7099-A972-4F29-A108-E9B560C4B8AA}"/>
+  <xr:revisionPtr revIDLastSave="1339" documentId="114_{22789302-DE30-4345-990F-1EE4C4217E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08562FD6-A190-4EC8-B08F-24BE51AD814B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="764" xr2:uid="{D7B72035-3369-4EF4-8DFB-3B38C175F6A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="システム全体業務" sheetId="17" r:id="rId1"/>
-    <sheet name="ログイン機能" sheetId="18" r:id="rId2"/>
-    <sheet name="ユーザー管理業務" sheetId="16" r:id="rId3"/>
-    <sheet name="選択肢" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="要求（当初）" sheetId="19" r:id="rId1"/>
+    <sheet name="システム全体業務" sheetId="17" r:id="rId2"/>
+    <sheet name="ログイン機能" sheetId="18" r:id="rId3"/>
+    <sheet name="ユーザー管理業務" sheetId="16" r:id="rId4"/>
+    <sheet name="選択肢" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">システム全体業務!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">ユーザー管理業務!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">ログイン機能!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">システム全体業務!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">ユーザー管理業務!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">ログイン機能!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -227,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="90">
   <si>
     <t>業務名</t>
     <rPh sb="0" eb="2">
@@ -923,6 +924,254 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務の課題</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シフトの作成に時間がかかる</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフとのシフト調整に手間と時間がかかる（現状は電話とメールにて個別に対応している）</t>
+    <rPh sb="9" eb="11">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テマ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シフトの作成に時間がかかるの調整開始やシフトの確定のタイミングを通知することに時間がかかる</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>チョウセイカイシ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緊急のスタッフからの交代要請に対応できない</t>
+    <rPh sb="0" eb="2">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>コウタイヨウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムへの要求</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素人でも使いやすいシステムにしてほしい</t>
+    <rPh sb="0" eb="2">
+      <t>シロウト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出来るだけ安く運用したい</t>
+    <rPh sb="0" eb="2">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ウンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗運営予定表を毎月手作業で作成している
+スタッフにかかる運営コスト（予算）、シフト予定（予定）の予定額が比較できない</t>
+    <rPh sb="0" eb="4">
+      <t>テンポウンエイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヨテイヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>マイツキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>テサギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>ヨテイガク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗運営実績表を毎月手作業で作成している
+スタッフの実際勤務（実績）、運営コスト（予算）、シフト予定（予定）が比較できない</t>
+    <rPh sb="0" eb="2">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>マイツキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>テサギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>ジッサイキンム</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗スタッフコスト実績表を手作業で作成している
+経理部にスタッフの勤務実績から人件費の自動計算ができない</t>
+    <rPh sb="0" eb="2">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ジッセキヒョウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>テサギョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ケイリブ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>キンムジッセキ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ジンケンヒ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>ジドウケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本部、店舗の社員と店舗スタッフが利用したい</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗スタッフとの連絡は、PCやスマホを利用したい</t>
+    <rPh sb="0" eb="2">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>リヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1056,7 +1305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1111,7 +1360,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1123,15 +1378,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1140,6 +1386,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1958,14 +2210,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43E5F4A-DEF8-43DE-A9B2-DDDA40AE721F}">
+  <dimension ref="A3:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="93.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="36">
+      <c r="B8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="36">
+      <c r="B9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="36">
+      <c r="B10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F773918-B4E7-460B-9E70-82F8047905F2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2172,7 +2543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FFFBF9-2AA4-420C-92CC-10CE4178FC21}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2375,15 +2746,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:M2"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B4:J4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2414,14 +2785,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F680A41-C526-4BF6-8759-08BEE2E3FA53}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -2528,7 +2899,7 @@
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="27" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="12"/>
@@ -2551,7 +2922,7 @@
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="27" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="12"/>
@@ -2574,16 +2945,16 @@
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="8" t="s">
         <v>6</v>
       </c>
@@ -2597,7 +2968,7 @@
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="27" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="12"/>
@@ -2620,7 +2991,7 @@
       <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="27" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="12"/>
@@ -2643,7 +3014,7 @@
       <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="27" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="12"/>
@@ -2666,7 +3037,7 @@
       <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="27" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="12"/>
@@ -2689,7 +3060,7 @@
       <c r="B12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="27" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="12"/>
@@ -2712,7 +3083,7 @@
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="27" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="12"/>
@@ -2758,16 +3129,16 @@
       <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="8" t="s">
         <v>6</v>
       </c>
@@ -2781,16 +3152,16 @@
       <c r="B16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="8" t="s">
         <v>6</v>
       </c>
@@ -2806,16 +3177,16 @@
       <c r="B17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="8" t="s">
         <v>6</v>
       </c>
@@ -2966,17 +3337,17 @@
       <c r="A24" s="5">
         <v>5</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
       <c r="K24" s="8" t="s">
         <v>6</v>
       </c>
@@ -3056,16 +3427,7 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C19:J19"/>
@@ -3082,9 +3444,18 @@
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C8:J8"/>
     <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B18:J18"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3116,7 +3487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0BB17F-1EE2-46B9-9963-0C57AD8CAFF6}">
   <dimension ref="A2:B6"/>
   <sheetViews>
@@ -3178,15 +3549,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="22ace240-17a3-4969-9cd9-798bb4bf2fb0">
@@ -3195,6 +3557,15 @@
     <TaxCatchAll xmlns="dea394e1-9875-43b7-be40-cf8169fa1bde" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3375,20 +3746,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAC71D9D-447D-472E-9CED-B1D6785D493B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB584B82-B2D0-4909-974F-A76908710326}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="22ace240-17a3-4969-9cd9-798bb4bf2fb0"/>
     <ds:schemaRef ds:uri="dea394e1-9875-43b7-be40-cf8169fa1bde"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAC71D9D-447D-472E-9CED-B1D6785D493B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
